--- a/학습자료/단답형/국어_암기자료_2주차.xlsx
+++ b/학습자료/단답형/국어_암기자료_2주차.xlsx
@@ -848,7 +848,7 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
-담배 한 대 먼저 채우고</t>
+담배 한 대 먼저 채우고 나서 이야기합시다</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
